--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for recording key vital signs (Systolic/Diastolic BP) in stroke patients.</t>
+    <t>Profile for recording key blood pressure vital signs in stroke patients using a single Observation with components. The Observation is categorized as vital-signs and uses component slices for systolic and diastolic blood pressure, each represented as a Quantity in UCUM mm[Hg].
+This profile supports repeated measurements over time by recording separate Observations at different effective[x] timestamps (e.g., arrival, post-thrombolysis monitoring, ICU). It intentionally does not model measurement conditions such as body position, cuff site, or device; such details may be captured via Observation.method, device references, or additional extensions if required by local workflows.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Stroke Vital Sign Observation Profile (R5)</t>
+    <t>Stroke Vital Sign Observation Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profile for recording key blood pressure vital signs in stroke patients using a single Observation with components. The Observation is categorized as vital-signs and uses component slices for systolic and diastolic blood pressure, each represented as a Quantity in UCUM mm[Hg].
-This profile supports repeated measurements over time by recording separate Observations at different effective[x] timestamps (e.g., arrival, post-thrombolysis monitoring, ICU). It intentionally does not model measurement conditions such as body position, cuff site, or device; such details may be captured via Observation.method, device references, or additional extensions if required by local workflows.</t>
+    <t>Profile for recording blood pressure vital signs in stroke patients using a single Observation with components.
+The Observation is categorized as `vital-signs` and uses component entries for systolic and diastolic blood pressure.
+**Primary use-case**
+- Record repeated BP measurements across the episode (arrival, post-thrombolysis monitoring, ICU) by creating multiple Observations with different `effective[x]`.
+**Representation**
+- `Observation.component.code` bound to VitalSignCodesVS.
+- `Observation.component.valueQuantity` in UCUM mm[Hg].
+**Typical scenarios**
+1) One Observation with two components (systolic and diastolic) recorded at the same timepoint.
+2) Multiple Observations over time, each with the same component structure, to track BP trends during acute management and monitoring.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vital-sign-observation-profile.xlsx
+++ b/StructureDefinition-vital-sign-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
